--- a/public/samp/FormImport.xlsx
+++ b/public/samp/FormImport.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\QLCDV\public\samp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6824855-3B36-4E72-8434-83741846C558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8461E4F1-23D4-4D44-ACBE-AC430F9A687F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,14 +96,6 @@
     <font>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,25 +137,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -442,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +446,7 @@
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" style="3" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" customWidth="1"/>
     <col min="15" max="15" width="22.42578125" customWidth="1"/>
     <col min="16" max="16" width="29.140625" customWidth="1"/>
@@ -523,35 +508,17 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E2" s="2"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="4"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E3" s="2"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="5"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="S1" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G3 J1" xr:uid="{A787CE0A-A58B-4963-935E-335000B15DF9}">
+  <dataValidations count="2">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 G1" xr:uid="{154497BA-B541-406A-8BF7-3AFB1BDEEDCA}">
       <formula1>9</formula1>
       <formula2>9</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R3" xr:uid="{BCF4A1DF-D4B4-42C0-B693-AEE8096B638F}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1" xr:uid="{E966669A-F130-4B52-8967-BAA467D1C3C2}">
       <formula1>8</formula1>
       <formula2>50</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 J3" xr:uid="{D79A3A4B-00E5-42A0-9913-BD8A6B7F9914}">
-      <formula1>10</formula1>
-      <formula2>10</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
